--- a/acer_matches.xlsx
+++ b/acer_matches.xlsx
@@ -1,42 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP EliteBook\OneDrive\A_Miscalaneus\Escritorio\Code\git_folder\images_downloader\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2751AA-E9A5-4A5D-8FD4-B6FE95869611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -55,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -335,15 +385,2594 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" activeCellId="1" sqref="A1 A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer aspire 1  </t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>acer aspire 5 a515-55 - ordenador portátil 15.6" fullhd (intel core i5-1035g1, 8gb ram, 256gb ssd, uma graphics, windows 10 home), color plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Aspire-Port%C3%A1til-i5-1035G1-Graphics/dp/B08F5JK7VR/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+1&amp;qid=1631022323&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer aspire 1  </t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>acer aspire 5 a515-44 - ordenador portátil 15.6" full hd, laptop (amd ryzen 7 4700u, 8 gb ram, 512 gb ssd, uma graphics, comfyview, endless os), pc portátil color negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Aspire-A515-44-Ordenador-ComfyView/dp/B08WX5F7LM/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+1&amp;qid=1631022323&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer aspire 1  </t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>acer aspire 5 a515-56g - ordenador portátil 15.6" full hd, laptop (intel core i7-1165g7, 8 gb ram, 512 gb ssd, nvidia geforce mx350 2gb, comfyview, sin os), pc portátil plata, teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Aspire-A515-56G-Ordenador-i7-1165G7/dp/B08PX44Q8J/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+1&amp;qid=1631022323&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer aspire 1  </t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>acer aspire 5 a515-56 - ordenador portátil 15.6" full hd, laptop (intel core i7-1165g7, 8 gb ram, 512 gb ssd, intel iris xe graphics, comfyview, sin os), pc portátil plata, teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Aspire-A515-56-Ordenador-i7-1165G7/dp/B08PX3C2SW/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+1&amp;qid=1631022323&amp;s=electronics&amp;sr=1-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer aspire 1  </t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>acer aspire 5 a515-55 - ordenador portátil 15.6" full hd, laptop (intel core i5-1035g1, 16gb ram, 512gb ssd, uma graphics, windows 10 home), pc portátil color plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Aspire-Port%C3%A1til-i5-1035G1-Graphics/dp/B08F5KDS6M/ref=sr_1_18?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+1&amp;qid=1631022323&amp;s=electronics&amp;sr=1-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer aspire 1  </t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>acer aspire 3 a317-53-34a6 - ordenador portátil de 17,3 pulgadas, hd+, portátil (intel core i3-1115g4, ram de 8 gb, ssd 512 gb, intel uhd graphics, windows 10) - teclado azerty (francés), color gris</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Aspire-A317-53-34A6-Ordenador-i3-1115G4/dp/B08WDJ296F/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+1&amp;qid=1631022323&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer aspire 3  </t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>acer aspire 3 a317-53-34a6 - ordenador portátil de 17,3 pulgadas, hd+, portátil (intel core i3-1115g4, ram de 8 gb, ssd 512 gb, intel uhd graphics, windows 10) - teclado azerty (francés), color gris</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Aspire-A317-53-34A6-Ordenador-i3-1115G4/dp/B08WDJ296F/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+3&amp;qid=1631022339&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer aspire 3  </t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>acer aspire 3 a315-56 - ordenador portátil 15.6” full hd, laptop (intel core i5-1035g1, 12gb ram, ram, 512gb ssd, uma graphics, sin sistema operativo), pc portátil color negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Aspire-Port%C3%A1til-i5-1035G1-Operativo/dp/B08F5KP4R6/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+3&amp;qid=1631022339&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer aspire 3  </t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>acer aspire 3 a315-41 - ordenador portátil 15.6” full hd, laptop (amd ryzen 5 2500u, 8gb ram, ram, 256gb ssd, uma graphics, windows 10 home), pc portátil color negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-A315-41-R8ZC-Ordenador-port%C3%A1til-Tarjeta/dp/B07D8B9N2K/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+3&amp;qid=1631022339&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer aspire 3  </t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>acer aspire 5 a515-55 - ordenador portátil 15.6" fullhd (intel core i5-1035g1, 8gb ram, 256gb ssd, uma graphics, windows 10 home), color plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Aspire-Port%C3%A1til-i5-1035G1-Graphics/dp/B08F5JK7VR/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+3&amp;qid=1631022339&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer aspire 3  </t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>acer aspire 5 15.6 inch fhd slim laptop, amd ryzen 3 3200u,vega 3 graphics, 4gb ddr4, 128gb ssd, american english qwerty backlit keyboard</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Graphics-American-English-Keyboard/dp/B094MN1RJG/ref=sr_1_16?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+3&amp;qid=1631022339&amp;s=electronics&amp;sr=1-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer aspire 3  </t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>acer aspire 5 a515-56g - ordenador portátil 15.6" full hd, laptop (intel core i7-1165g7, 8 gb ram, 512 gb ssd, nvidia geforce mx350 2gb, comfyview, sin os), pc portátil plata, teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Aspire-A515-56G-Ordenador-i7-1165G7/dp/B08PX44Q8J/ref=sr_1_22?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+3&amp;qid=1631022339&amp;s=electronics&amp;sr=1-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer aspire 3  </t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>acer aspire 5 a515-55 - ordenador portátil 15.6" full hd, laptop (intel core i5-1035g1, 16gb ram, 512gb ssd, uma graphics, windows 10 home), pc portátil color plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Aspire-Port%C3%A1til-i5-1035G1-Graphics/dp/B08F5KDS6M/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+3&amp;qid=1631022339&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer aspire 3  </t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>acer aspire 3 a315-56-5205 - ordenador portátil (15,6") fhd (core i5, 8 gb de ram, ssd 512 gb, intel uhd graphics, windows 10f) - french keyboard (azerty)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Aspire-A315-56-5205-Ordenador-port%C3%A1til/dp/B089T436YR/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+3&amp;qid=1631022339&amp;s=electronics&amp;sr=1-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook 314 cb314-1h  </t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>acer chromebook 314 cb314-1h - ordenador portátil 14" full hd, laptop (intel celeron n4020, 4gb ram, 32gb emmc, intel uhd graphics, chrome os), pc portátil color plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A05597672G4QY1JSFXC4J&amp;url=%2FAcer-Chromebook-314-CB314-1H-Ordenador%2Fdp%2FB08XC1G78P%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dacer%2Bchromebook%2B314%2Bcb314-1h%26qid%3D1631022466%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1631022466&amp;id=7392795416160363&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook 314 cb314-1h  </t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>acer chromebook 314 cb314-1h - ordenador portátil 14" full hd, laptop (intel celeron n4020, 4gb ram, 32gb emmc, intel uhd graphics, chrome os), pc portátil color plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Chromebook-314-CB314-1H-Ordenador/dp/B08XC1G78P/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+314+cb314-1h&amp;qid=1631022466&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook 314 cb314-1h  </t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>acer chromebook 314 cb314-1h - ordenador portátil 14" hd, laptop (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics, chrome os), pc portátil color plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Chromebook-314-CB314-1H-Procesador/dp/B085PCPNCV/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+314+cb314-1h&amp;qid=1631022466&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook 314 cb314-1h  </t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>acer chromebook 314 cb314-1h - ordenador portátil 14" hd, laptop (intel celeron n4020, 4gb ram, 32gb emmc, intel uhd graphics, chrome os), pc portátil color plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Chromebook-314-CB314-1H-Procesador/dp/B085PDG71J/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+314+cb314-1h&amp;qid=1631022466&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook 514  </t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>acer chromebook spin 514 - ordenador portátil 2 en 1 convertible y tactil 14" full hd, laptop (amd ryzen 3 3250c, 8gb ram, 128gb ssd, uma graphics, chrome os), pc portátil plata - teclado qwerty</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Chromebook-14-Port%C3%A1til-Graphics/dp/B08FC69VMH/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+514&amp;qid=1631022480&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook 514  </t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>acer chromebook spin 514 - ordenador portátil 2 en 1 convertible y tactil 14" full hd, laptop (amd athlon n3050c, 4gb ram, 64gb ssd, uma graphics, chrome os) pc portátil color plata - teclado qwerty</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Chromebook-13-Port%C3%A1til-Graphics/dp/B08FC7LW5Z/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+514&amp;qid=1631022480&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook 514  </t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>acer chromebook 514 cb514-1ht - ordenador táctil 14" full hd ips, laptop (intel pentium n4200, 4gb ram, 128gb emmc, intel hd graphics 505, chrome os), pc portátil plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Chromebook-514-CB514-1HT-Procesador/dp/B085PDBDR7/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+514&amp;qid=1631022480&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook 714 cb714-1w  </t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>acer chromebook 714 cb714-1w - ordenador portátil táctil 14" full hd ips, laptop (intel core i3-8130u, 4gb ram, 64gb emmc, intel uhd graphics, chrome os), pc portátil gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A0852293IATLVS1Z17QM&amp;url=%2FAcer-Chromebook-714-CB714-1W-Procesador%2Fdp%2FB085PDJ3V3%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dacer%2Bchromebook%2B714%2Bcb714-1w%26qid%3D1631022495%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1631022495&amp;id=6310489993055812&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook 714 cb714-1w  </t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>acer chromebook 714 cb714-1w - ordenador portátil táctil 14" full hd ips, laptop (intel core i3-8130u, 4gb ram, 64gb emmc, intel uhd graphics, chrome os), pc portátil gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Chromebook-714-CB714-1W-Procesador/dp/B085PDJ3V3/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+714+cb714-1w&amp;qid=1631022495&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook 715  </t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>acer chromebook 715 cb715-1wt-37gm - core i3 8130u / 2.2 ghz - cromo os - 8 gb ram - 32 gb emmc -...</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Chromebook-715-CB715-1WT-37GM-8130U/dp/B08BB2HR7M/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+715&amp;qid=1631022509&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook 715  </t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>acer portátil chromebook 715 15" fhd ips - core i5-8250u - 8 gb ddr4 - 128 gb emmc hdd - intel hd - 802.11ac/b/g/n + bt- tpm - lector de huellas - no odd - bateria 56wh - chrome - plata</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-NX-HB2EB-002-Chromebook-CB715-1W-50LT/dp/B07Y82B5LY/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+715&amp;qid=1631022509&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook 715  </t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>acer portátil chromebook 715 15" fhd ips - core i3-8165u - 8 gb ddr4 - 64 gb emmc hdd - intel hd - 802.11ac/b/g/n + bt- tpm - lector de huellas - no odd - batería 56wh - chrome enterprise - plata</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-port%C3%A1til-Chromebook-715-FHD/dp/B087WH2G8X/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+715&amp;qid=1631022509&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook 715  </t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>acer portátil chromebook 715 15" fhd ips - core i5-8250u - 8 gb ddr4 - 128 gb emmc hdd - intel hd - 802.11ac/b/g/n + bt- tpm - lector de huellas - no odd - bateria 56wh - chrome enterprise - plata</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-port%C3%A1til-Chromebook-715-FHD/dp/B089T7LGZQ/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+715&amp;qid=1631022509&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook 715  </t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>acer chromebook 715 for work cb715-1wt-p9ku</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ACER-Chromebook-715-Work-CB715-1WT-P9KU/dp/B08KYCN472/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+715&amp;qid=1631022509&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook r 13  </t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>acer chromebook spin 513 cp513-1h - ordenador portátil 2 en 1 convertible y táctil 13.3 full hd ips (qualcomm snapdragon sc7180, 8gb ram, 64gb emmc, uma graphics, chrome os), pc portátil azul - qwerty</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Chromebook-Spin-513-CP513-1H/dp/B08V54D9JP/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+r13&amp;qid=1631022535&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook r 13  </t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>acer chromebook 713 - portátil táctil convertible 13.5" qhd (intel core i5-1021u, 8gb ram, 128gb ssd, chrome os), color plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Chromebook-713-Port%C3%A1til-Convertible/dp/B08FC5V3ZV/ref=sr_1_19?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+r13&amp;qid=1631022535&amp;s=electronics&amp;sr=1-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook r 13  </t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>acer chromebook 714 cb714-1w - ordenador portátil táctil 14" full hd ips, laptop (intel core i3-8130u, 4gb ram, 64gb emmc, intel uhd graphics, chrome os), pc portátil gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Chromebook-714-CB714-1W-Procesador/dp/B085PDJ3V3/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+r13&amp;qid=1631022535&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook spin 13  </t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>acer chromebook spin 513 cp513-1h - ordenador portátil 2 en 1 convertible y táctil 13.3 full hd ips (qualcomm snapdragon sc7180, 8gb ram, 64gb emmc, uma graphics, chrome os), pc portátil azul - qwerty</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Chromebook-Spin-513-CP513-1H/dp/B08V54D9JP/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+spin+13&amp;qid=1631022549&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook spin 13  </t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>acer chromebook spin 513 13" fhd touch 4gb/64gb emmc chromeos cp513-1h-s72y</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Chromebook-Touch-ChromeOS-CP513-1H-S72Y/dp/B093TK2P99/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+spin+13&amp;qid=1631022549&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook spin 13  </t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>acer chromebook spin 13 13.5" touch chromebook - core i5 1.6ghz cpu, 8gb ram, google chrome</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Chromebook-Spin-13-5-Touch/dp/B08CNPVN1D/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+spin+13&amp;qid=1631022549&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook spin 13  </t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>acer portátil chromebook spin 13,5" qhd touch ips - core i3-8165u - 8 gb ddr3 - 64 gb emmc hdd - intel hd - 802.11ac/b/g/n + bt- tpm - wacom stylus pen - no odd - chrome enterprise - plata</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-port%C3%A1til-Chromebook-SPIN-Touch/dp/B089T36KSF/ref=sr_1_19?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+spin+13&amp;qid=1631022549&amp;s=electronics&amp;sr=1-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook spin 311  </t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>acer chromebook spin 311 cp311-3h - ordenador portátil 2 en 1 convertible y táctil 11.6" hd ips (mtk mt8183, 4gb ram, 32gb emmc, mali-g72 mp3 graphics, chrome os), pc portátil plata - qwerty</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Chromebook-Spin-311-CP311-3H/dp/B085PCN161/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+spin+311&amp;qid=1631022563&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook spin 513  </t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>acer chromebook spin 513 cp513-1h - ordenador portátil 2 en 1 convertible y táctil 13.3 full hd ips (qualcomm snapdragon sc7180, 8gb ram, 64gb emmc, uma graphics, chrome os), pc portátil azul - qwerty</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Chromebook-Spin-513-CP513-1H/dp/B08V54D9JP/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+spin+513&amp;qid=1631022577&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook spin 513  </t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>acer chromebook spin 513 13" fhd touch 4gb/64gb emmc chromeos cp513-1h-s72y</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Chromebook-Touch-ChromeOS-CP513-1H-S72Y/dp/B093TK2P99/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+spin+513&amp;qid=1631022577&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook spin 513  </t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>acer chromebook spin 513 cp513-1h-s98j - ordenador portátil 7c emmc 64gb + ram 8gb silver</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ChromeBook-Spin-513-CP513-1H-S98J/dp/B09CZ1RMQX/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+spin+513&amp;qid=1631022577&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook spin 513  </t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>acer chromebook spin 513 cp513-1h-s0xg - 33,8 cm (13,3") - snapdragon 7c kryo 468 - silber</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Chromebook-Spin-513-CP513-1H-S0XG/dp/B08XND6SMZ/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+spin+513&amp;qid=1631022577&amp;s=electronics&amp;sr=1-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3  </t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 cn314-72 - ordenador portátil 14" full hd, laptop (intel core i7-10750h, 8gb ram, 1tb ssd, nvidia gtx 1650, windows 10 pro), pc portátil color blanco - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-CN314-72-Ordenador-i7-10750H/dp/B08KY87FJT/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3  </t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 pro cn315-72p - ordenador portátil 15.6" full hd, laptop (intel core i7-10750h, 16gb ram, 1tb ssd, nvidia quadro t1000, windows 10 pro), pc portátil blanco - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Pro-CN315-72P-Ordenador/dp/B08KY7T6YR/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3  </t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 cn315-72g - ordenador portátil 15.6" full hd ips, laptop (intel core i5-10300h, 8gb ram, 512gb ssd, nvidia geforce gtx 1650, windows 10 home), pc portátil blanco - teclado qwerty</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-CN315-72G-Ordenador-i5-10300H/dp/B099F3RFPS/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3  </t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 ezel pro cc314-72p-75p3-35,6 cm (14") - core i7 10750h - 16 gb ram - ssd de 1,024 tb</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Ezel-Pro-CC314-72P-75P3-35/dp/B08QN9RGVJ/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3  </t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 pro cn314-72p - ordenador portátil 14" full hd, laptop (intel core i7-10750h, 16gb ram, 1tb ssd, nvidia quadro t1000, windows 10 pro), pc portátil color blanco - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Pro-CN314-72P-Ordenador/dp/B08KY71HH4/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3  </t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 pro cn314-72p - ordenador portátil 14" full hd ips, laptop (intel core i5-10300h, 8gb ram, 512gb ssd, nvidia quadro t1000, windows 10 pro), pc portátil blanco - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Pro-CN314-72P-Ordenador/dp/B096BFZFM8/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3  </t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 ezel pro cc315-72p-79tg - 35,6 cm (14") - core i7 10750h - 16 gb ram - 1.024 tb ssd - español</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Ezel-Pro-CC315-72P-79TG/dp/B08QNDCGK3/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3  </t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 cn314-72 - ordenador portátil 14" full hd ips, laptop (intel core i5-10300h, 8gb ram, 512gb ssd, intel uhd graphics, windows 10 pro), pc portátil color blanco - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-CN314-72-Ordenador-i5-10300H/dp/B099F1HGJT/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3  </t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 intel core i7-10750h notebook 35,56 cm (14") 16gb ram, 512gb ssd, intel uhd grafik, full-hd, win 10 pro</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-i7-10750H-Notebook-Full-HD/dp/B08QNDKZPR/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3  </t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 cn315-72g-7356-39,6 cm (15.6") - core i7 10750h - 16 gb ram - 512 gb ssd - español</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-CN315-72G-7356-39-15-10750H/dp/B08KZPNJ52/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3  </t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 ezel pro cc314-72p - ordenador portátil convertible y tactil 14" full hd (intel core i7-10750h, 16gb ram, 1tb ssd, nvidia quadro t1000, windows 10 pro), laptop blanco, teclado qwerty</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Ezel-Pro-CC314-72P/dp/B099F2ZVJF/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3  </t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 cn315-72 - ordenador portátil 15.6" full hd ips, laptop (intel core i5-10300h, 8gb ram, 512gb ssd, intel uhd graphics, windows 10 home), pc portátil blanco - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-CN315-72-Ordenador-i5-10300H/dp/B099F4CWY9/ref=sr_1_12?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3  </t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 pro 15.6" i7-10750h win10p</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-15-6-i7-10750H-Win10P/dp/B08LSHQVJX/ref=sr_1_13?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3  </t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 ezel pro cc315-72p-7226 w10p</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Ezel-CC315-72P-7226-W10P/dp/B08VHBBJH3/ref=sr_1_14?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3  </t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 cn314-72-50ym - 35,6 cm (14") - core i5 10300h - 8 gb ram - 256 gb ssd - deutsch</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-CN314-72-50YM-10300H-Deutsch/dp/B08QN9N9TS/ref=sr_1_18?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3  </t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 ezel cc314-72g portátil blanco 35,6 cm (14") 1920 x 1080 pixeles pantalla táctil intel® core i7 de 10ma generación 16 gb ddr4-sdram 1000 gb ssd nvidia® geforce® gtx 1650 ti</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-CC314-72G-Generaci%C3%B3n-DDR4-SDRAM/dp/B08KZNLY2G/ref=sr_1_20?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3  </t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 ezel cc315-72g-70lb i7-10750h</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Ezel-CC315-72G-70lb-i7-10750H/dp/B08VHB8DRF/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3  </t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>acer conceptd 7 pro cn715-72p - ordenador portátil 15.6" 4k uhd ips, laptop (intel core i7-10750h, 32gb ram, 1tb ssd, nvidia quadro rtx 3000, windows 10 pro) pc portátil blanco, teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Pro-CN715-72P-Ordenador/dp/B099F1QFSY/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3 pro  </t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 pro cn315-72p - ordenador portátil 15.6" full hd, laptop (intel core i7-10750h, 16gb ram, 1tb ssd, nvidia quadro t1000, windows 10 pro), pc portátil blanco - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Pro-CN315-72P-Ordenador/dp/B08KY7T6YR/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3 pro  </t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 pro cn314-72p - ordenador portátil 14" full hd ips, laptop (intel core i5-10300h, 8gb ram, 512gb ssd, nvidia quadro t1000, windows 10 pro), pc portátil blanco - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Pro-CN314-72P-Ordenador/dp/B096BFZFM8/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3 pro  </t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 cn314-72 - ordenador portátil 14" full hd, laptop (intel core i7-10750h, 8gb ram, 1tb ssd, nvidia gtx 1650, windows 10 pro), pc portátil color blanco - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-CN314-72-Ordenador-i7-10750H/dp/B08KY87FJT/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3 pro  </t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 pro 15.6" i7-10750h win10p</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-15-6-i7-10750H-Win10P/dp/B08LSHQVJX/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3 pro  </t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 cn314-72 - ordenador portátil 14" full hd ips, laptop (intel core i5-10300h, 8gb ram, 512gb ssd, intel uhd graphics, windows 10 pro), pc portátil color blanco - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-CN314-72-Ordenador-i5-10300H/dp/B099F1HGJT/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3 pro  </t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 pro cn314-72p - ordenador portátil 14" full hd, laptop (intel core i7-10750h, 16gb ram, 1tb ssd, nvidia quadro t1000, windows 10 pro), pc portátil color blanco - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Pro-CN314-72P-Ordenador/dp/B08KY71HH4/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3 pro  </t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 ezel pro cc315-72p-79tg - 35,6 cm (14") - core i7 10750h - 16 gb ram - 1.024 tb ssd - español</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Ezel-Pro-CC315-72P-79TG/dp/B08QNDCGK3/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3 pro  </t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 ezel pro cc314-72p - ordenador portátil convertible y tactil 14" full hd (intel core i7-10750h, 16gb ram, 1tb ssd, nvidia quadro t1000, windows 10 pro), laptop blanco, teclado qwerty</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Ezel-Pro-CC314-72P/dp/B099F2ZVJF/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3 pro  </t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 ezel pro cc315-72p-7226 w10p</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Ezel-CC315-72P-7226-W10P/dp/B08VHBBJH3/ref=sr_1_12?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3 pro  </t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 intel core i7-10750h notebook 35,56 cm (14") 16gb ram, 512gb ssd, intel uhd grafik, full-hd, win 10 pro</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-i7-10750H-Notebook-Full-HD/dp/B08QNDKZPR/ref=sr_1_13?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3 pro  </t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 ezel pro cc314-72p-75p3-35,6 cm (14") - core i7 10750h - 16 gb ram - ssd de 1,024 tb</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Ezel-Pro-CC314-72P-75P3-35/dp/B08QN9RGVJ/ref=sr_1_15?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3 pro  </t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>acer cuaderno conceptd 7 pro cn715-72p-76ll - 39,62 cm (15,6") - intel core i7-10750h - weiß</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Cuaderno-ConceptD-Pro-CN715-72P-76LL/dp/B08XNJ277T/ref=sr_1_22?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3 pro  </t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>acer conceptd 7 pro cn715-72p - ordenador portátil 15.6" 4k uhd ips, laptop (intel core i7-10750h, 32gb ram, 1tb ssd, nvidia quadro rtx 3000, windows 10 pro) pc portátil blanco, teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Pro-CN715-72P-Ordenador/dp/B099F1QFSY/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3 pro  </t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 pro intel core i7-10750h notebook 39,62cm (15,6") 16gb ram, 512gb ssd, nvidia quadro, fullhd, win 10 pro</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-i7-10750H-Notebook-NVIDIA/dp/B08QNBX4BY/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 7 pro  </t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>acer conceptd 7 pro cn715-72p - ordenador portátil 15.6" 4k uhd ips, laptop (intel core i7-10750h, 32gb ram, 1tb ssd, nvidia quadro rtx 3000, windows 10 pro) pc portátil blanco, teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Pro-CN715-72P-Ordenador/dp/B099F1QFSY/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+7+pro&amp;qid=1631022632&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 7 pro  </t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>acer conceptd 7 pro cn715-72p-76qy - 39,6 cm (15,6") - i7-10875h</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Pro-CN715-72P-76QY-i7-10875H/dp/B08XNGWX3N/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+7+pro&amp;qid=1631022632&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 7 pro  </t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>acer conceptd 7 pro cn715-72p-78u0 15.6"</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Pro-CN715-72P-78U0-15-6/dp/B08P8X8FMY/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+7+pro&amp;qid=1631022632&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 7 pro  </t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>acer cuaderno conceptd 7 pro cn715-72p-76ll - 39,62 cm (15,6") - intel core i7-10750h - weiß</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Cuaderno-ConceptD-Pro-CN715-72P-76LL/dp/B08XNJ277T/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+7+pro&amp;qid=1631022632&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 7 pro  </t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>acer conceptd 7 pro cn715-72p - ordenador portátil 15.6" 4k uhd ips, laptop (intel core i7-10875h, 32gb ram, 1tb ssd, nvidia quadro rtx 5000, windows 10 pro) pc portátil blanco, teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Pro-CN715-72P-Ordenador/dp/B096BBRMP5/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+7+pro&amp;qid=1631022632&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 7 pro  </t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 cn314-72 - ordenador portátil 14" full hd, laptop (intel core i7-10750h, 8gb ram, 1tb ssd, nvidia gtx 1650, windows 10 pro), pc portátil color blanco - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-CN314-72-Ordenador-i7-10750H/dp/B08KY87FJT/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+7+pro&amp;qid=1631022632&amp;s=electronics&amp;sr=1-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 7 pro  </t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 pro cn315-72p - ordenador portátil 15.6" full hd, laptop (intel core i7-10750h, 16gb ram, 1tb ssd, nvidia quadro t1000, windows 10 pro), pc portátil blanco - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Pro-CN315-72P-Ordenador/dp/B08KY7T6YR/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+7+pro&amp;qid=1631022632&amp;s=electronics&amp;sr=1-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 7 pro  </t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 cn314-72 - ordenador portátil 14" full hd ips, laptop (intel core i5-10300h, 8gb ram, 512gb ssd, intel uhd graphics, windows 10 pro), pc portátil color blanco - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-CN314-72-Ordenador-i5-10300H/dp/B099F1HGJT/ref=sr_1_16?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+7+pro&amp;qid=1631022632&amp;s=electronics&amp;sr=1-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer extensa 15  </t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>extensa acer 15 ex215-31 - ordenador portátil 15.6" hd (intel n4020, 8gb ram, 256gb ssd, intel uhd graphics , negro- teclado qwerty español, sin sistema operativo)</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Extensa-Acer-15-EX215-31-Ordenador/dp/B08KQ1BL61/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+extensa+15&amp;qid=1631022670&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer extensa 15  </t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>acer portatil extensa 15 ex215-22 ryzen 5-3500u 15.6" fhd 8gb s512gb wifi.ac linux negro</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-PORTATIL-EXTENSA-EX215-22-5-3500U/dp/B08PPHTH2G/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+extensa+15&amp;qid=1631022670&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer extensa 15  </t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>acer extensa 15 ex215-22 - ordenador portátil 15.6" fhd (windows 10 home s, amd ryzen 3 3250u, 8gb ram, 256gb ssd, radeon™ graphics , negro, teclado qwerty español)</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ACER-EXTENSA-15-EX215-22-Ordenador/dp/B08Y81LSJW/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+extensa+15&amp;qid=1631022670&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer extensa 15  </t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>acer extensa 15 ex215-22 - ordenador portátil 15.6" fhd (iamd ryzen 3 3250u, 8gb ram, 256gb ssd, radeon™ graphics , negro- teclado qwerty español, sin sistema operativo)</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-EXTENSA-EX215-22-Ordenador-operativo/dp/B08PD5T99B/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+extensa+15&amp;qid=1631022670&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer extensa 15  </t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>acer extensa 15 | ex215-52-519j - nx.eg8eb.00l</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Extensa-15-EX215-52-519J-NX-EG8EB-00L/dp/B08HD2K7WM/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+extensa+15&amp;qid=1631022670&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer extensa 15  </t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>portatil acer extensa 15 ex215-52-78j5 negro</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/PORTATIL-ACER-EXTENSA-EX215-52-78J5-Negro/dp/B08NXMDRC7/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+extensa+15&amp;qid=1631022670&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer extensa 15  </t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>acer extensa 15 | ex215-52-33py - nx.eg8eb.00d</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Extensa-15-EX215-52-33PY-NX-EG8EB-00D/dp/B08HCSCYX4/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+extensa+15&amp;qid=1631022670&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer extensa 15  </t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>acer extensa 15 ex215-52-507r - 39,62 cm (15.6") - core i5 1035g1-8 gb ram - 512 gb ssd - español</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Extensa-15-EX215-52-507R-1035G1-8/dp/B08P57JSFN/ref=sr_1_25?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+extensa+15&amp;qid=1631022670&amp;s=electronics&amp;sr=1-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer extensa 15  </t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>acer extensa 15 ex215-31-p5eq portátil negro 39,6 cm (15.6") 1920 x 1080 pixeles intel® pentium® silver 4 gb ddr4-sdram 128 gb ssd wi-fi 5 (802.11ac) windows 10 pro extensa 15 ex215-31-p5eq,</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-EX215-31-P5EQ-Port%C3%A1til-Pentium%C2%AE-DDR4-SDRAM/dp/B08CNDYS7S/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+extensa+15&amp;qid=1631022670&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer extensa ex2540  </t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>hdd-2-5inch-2tb-2000gb acer extensa ex2540 i3 15.6 2tb 2tb hdd unidad de disco duro 2.5 sata nuevo</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/hdd-2-5inch-2tb-2000gb-Extensa-ex2540-Unidad-disco/dp/B07DMG8BSV/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+extensa+ex2540&amp;qid=1631022684&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer predator helios 300  </t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>acer predator helios 300 ph315-53 - ordenador portátil gaming 15.6" full hd, gaming laptop 144hz (intel core i7-10750h, 16b ram, 1tb ssd, nvidia geforce rtx3070, sin so) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Predator-Helios-300-i7-10750H/dp/B08SWS2PSV/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+predator+helios+300&amp;qid=1631022721&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer predator helios 300  </t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>acer predator helios 300 ph315-53 - ordenador portátil gaming 15.6" full hd 144 hz, gaming laptop (intel core i7-10750h, 16b ram, 1tb ssd, nvidia rtx 3060, sin so), pc portátil negro - teclado qwerty</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Predator-Helios-300-RTX3060-6GB/dp/B099F6DRKY/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+predator+helios+300&amp;qid=1631022721&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer predator helios 300  </t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>acer predator helios 300 ph315-53 - ordenador portátil gaming 15.6" full hd, gaming laptop (intel core i7-10750h, 16b ram, 1tb ssd, nvidia rtx2060, sin so), pc portátil negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Predator-Helios-300-Ordenador/dp/B086W6SWQ8/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+predator+helios+300&amp;qid=1631022721&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer predator helios 300  </t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>acer predator helios 300 gaming laptop, intel i7-10750h, nvidia geforce rtx 3060 6gb, 15.6" fhd 144hz 3ms ips display, 16gb ddr4, 512gb nvme ssd, wifi 6 american english backlit keyboard</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Predator-i7-10750H-American-Keyboard/dp/B08VKV5WQ1/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+predator+helios+300&amp;qid=1631022721&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer predator helios 300  </t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>acer predator helios 300 ph315-51-76vb - ordenador portátil de 15.6" full hd (intel core i7-8750h, 16gb ram, 128gb ssd, 1tb hdd, nvidia geforce gtx1060, windows 10) negro - teclado español</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Predator-Helios-300-PH315-51-76VB/dp/B07G3RY9HS/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+predator+helios+300&amp;qid=1631022721&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer predator helios 300  </t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>acer predator helios 300 - portátil gaming 15.6" fullhd 144hz (intel core i7-10750h, 16gb ram, 1tb ssd, nvidia rtx3080-8gb, sin sistema operativo), color negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Predator-Helios-300-RTX3080-8GB/dp/B09BFQLLL7/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+predator+helios+300&amp;qid=1631022721&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer predator helios 300  </t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>acer predator helios 300 portátil gaming gtx 1060 with new i7 15.6 inch</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Predator-Helios-300-Port%C3%A1til-Gaming/dp/B07FS4N3PR/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+predator+helios+300&amp;qid=1631022721&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer predator helios 300  </t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>acer predator helios 300 - ordenador portátil gaming de 15.6" fullhd (intel core i7-9750h, 16gb ram, 512gb ssd, nvidia geforce gtx 1660ti 6gb, sin sistema operativo) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Predator-Helios-300-Ordenador/dp/B083QW7DS8/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+predator+helios+300&amp;qid=1631022721&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer predator helios 300  </t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>acer predator helios 300 gaming laptop, intel i7-10750h, nvidia geforce rtx 2070 super, 15.6" fhd 300hz nvidia g-sync display, 16gb ddr4, 512gb nvme ssd, american english backlit keyboard</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Predator-i7-10750H-American-Keyboard/dp/B096W9ZQNL/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+predator+helios+300&amp;qid=1631022721&amp;s=electronics&amp;sr=1-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer predator helios 300  </t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>acer predator helios 300, 39,62 cm (15,6 zoll), fhd, 240hz, rtx 3070</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Predator-Helios-Zoll-240Hz/dp/B096W6SDV1/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+predator+helios+300&amp;qid=1631022721&amp;s=electronics&amp;sr=1-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer swift 3  </t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>acer swift 3 - ordenador portátil 14" full hd, laptop (amd ryzen 3 3200u, 8gb ram, 512gb ssd, uma graphics, windows 10 home), pc portátil color plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Swift-Port%C3%A1til-Graphics-Windows/dp/B08F5JM5ZS/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+3&amp;qid=1631022771&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer swift 3  </t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>acer swift 3 - ordenador portátil ultrafino 13.5" qhd (intel core i7-1065g7, 16gb ram, 1tb ssd, intel iris plus graphics, windows 10 home), color plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Swift-Ordenador-ultrafino-i7-1065G7/dp/B089B3499K/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+3&amp;qid=1631022771&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer swift 3  </t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>acer swift 3 sf314-59-50mz - ordenador portátil 14" full hd, laptop (intel core i5-1135g7, 8gb ram, 256gb ssd, uma graphics, windows 10 home), pc portátil color plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Swift-Port%C3%A1til-i5-1135G7-Graphics/dp/B08SW2YLVX/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+3&amp;qid=1631022771&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer swift 3  </t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>acer swift 3 - portátil 14" fullhd (ryzen 5 3500u , 8gb ram, 512gb ssd, uma graphics, windows 10 home) - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Swift-Port%C3%A1til-Graphics-Windows/dp/B0936PVXLQ/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+3&amp;qid=1631022771&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer swift 3  </t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>acer swift 3 (sf314-57-55bk) 14" full hd ips, intel i5-1035g1, 8gb ram, 512gb ssd, windows 10</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Swift-SF314-57-55BK-i5-1035G1-Windows/dp/B07WL4J978/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+3&amp;qid=1631022771&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer swift 3  </t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>acer swift 3 sf314-42-r86v plata portátil 35,6 cm (14") 1920 x 1080 pixeles amd ryzen 5 8 gb lpddr4-sdram 256 gb ssd wi-fi 6 (802.11ax) windows 10 home swift 3 sf314-42-r86v, amd ryzen 5, 2,3</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-SF314-42-R86V-Port%C3%A1til-LPDDR4-SDRAM-802-11ax/dp/B0873PG7Y8/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+3&amp;qid=1631022771&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer swift 3  </t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>acer swift 3 sf314-42-r4xj portátil plata 35,6 cm (14") 1920 x 1080 pixeles amd ryzen 7 8 gb lpddr4-sdram 1000 gb ssd wi-fi 6 (802.11ax) windows 10 home swift 3 sf314-42-r4xj, amd ryzen 7, 2</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-SF314-42-R4XJ-Port%C3%A1til-LPDDR4-SDRAM-802-11ax/dp/B085F4HVB4/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+3&amp;qid=1631022771&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer swift 3  </t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>acer swift 5 nu-sf514-55t-5001 - ordenador portátil 14" full hd, laptop (intel core i5-1135g7, 8gb ram, 512gb ssd, intel evo, iris xe graphics, windows 10 home), pc portátil color negro - qwerty</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Swift-Port%C3%A1til-i5-1135G7-Graphics/dp/B08F5JB5NV/ref=sr_1_13?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+3&amp;qid=1631022771&amp;s=electronics&amp;sr=1-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer swift 3  </t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>acer swift 3 sf314-52g - ordenador portátil 14" fhd ips (intel core i5-8250u, 8 gb de ram, 256 gb ssd, nvidia geforce mx150 de 2 gb, windows 10 home) azul - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Swift-SF314-52G-Ordenador-port%C3%A1til/dp/B079NPFRXC/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+3&amp;qid=1631022771&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer swift 5  </t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>acer swift 5 nu-sf514-55t-5001 - ordenador portátil 14" full hd, laptop (intel core i5-1135g7, 8gb ram, 512gb ssd, intel evo, iris xe graphics, windows 10 home), pc portátil color negro - qwerty</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Swift-Port%C3%A1til-i5-1135G7-Graphics/dp/B08F5JB5NV/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+5&amp;qid=1631022785&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer swift 5  </t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>acer swift 3 - portátil 14" fullhd (ryzen 5 3500u , 8gb ram, 512gb ssd, uma graphics, windows 10 home) - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Swift-Port%C3%A1til-Graphics-Windows/dp/B0936PVXLQ/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+5&amp;qid=1631022785&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer swift 5  </t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>acer swift 3 - ordenador portátil 14" full hd, laptop (amd ryzen 3 3200u, 8gb ram, 512gb ssd, uma graphics, windows 10 home), pc portátil color plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Swift-Port%C3%A1til-Graphics-Windows/dp/B08F5JM5ZS/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+5&amp;qid=1631022785&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer swift 5  </t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>acer swift 3 - ordenador portátil ultrafino 13.5" qhd (intel core i7-1065g7, 16gb ram, 1tb ssd, intel iris plus graphics, windows 10 home), color plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Swift-Ordenador-ultrafino-i7-1065G7/dp/B089B3499K/ref=sr_1_18?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+5&amp;qid=1631022785&amp;s=electronics&amp;sr=1-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer swift 5  </t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>acer swift 3 (sf314-57-55bk) 14" full hd ips, intel i5-1035g1, 8gb ram, 512gb ssd, windows 10</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Swift-SF314-57-55BK-i5-1035G1-Windows/dp/B07WL4J978/ref=sr_1_22?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+5&amp;qid=1631022785&amp;s=electronics&amp;sr=1-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer swift 5  </t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>acer swift 3 sf314-59-50mz - ordenador portátil 14" full hd, laptop (intel core i5-1135g7, 8gb ram, 256gb ssd, uma graphics, windows 10 home), pc portátil color plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Swift-Port%C3%A1til-i5-1135G7-Graphics/dp/B08SW2YLVX/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+5&amp;qid=1631022785&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer swift 5  </t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>acer swift 5 sf514-55gt-78fl 14" touch screen i7-1165g7 ram 8gb-ssd 512gb m.2 nvme-nvidia geforce mx350 2gb-win 10 home</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-SWIFT-SF514-55GT-78FL-i7-1165G7-NVMe-NVIDIA/dp/B08NTV2X7V/ref=sr_1_28?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+5&amp;qid=1631022785&amp;s=electronics&amp;sr=1-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer travelmate  </t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>acer travelmate spin b3 tmb311rn-31-p5kk - educación - 29,46 cm (11,6") - intel pentium silver n503</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-TravelMate-TMB311RN-31-P5KK-Pantalla-DDR4-SDRAM/dp/B0896F7S85/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+travelmate&amp;qid=1631022799&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>